--- a/output/operationalisations_scriptie_excel.xlsx
+++ b/output/operationalisations_scriptie_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timvincken/Sync/home-advantage/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Data\research\home-advantage\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5FE0F209-AB3E-734C-9EC5-E061CC3EF917}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{39E3EFDC-9505-4096-A205-84C1053021C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="14340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="15960" windowHeight="14340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exportoverzicht" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="105">
   <si>
     <t>Dit document is geëxporteerd vanuit Numbers. Elke tabel is omgezet in een Excel-werkblad. Alle andere objecten op elk Numbers-werkblad zijn op afzonderlijke werkbladen geplaatst. Het is mogelijk dat formuleberekeningen in Excel kunnen verschillen.</t>
   </si>
@@ -80,12 +80,6 @@
     <t>yellowTiedGames</t>
   </si>
   <si>
-    <t>20, Griffin2013</t>
-  </si>
-  <si>
-    <t>Enter name here (mandatory)</t>
-  </si>
-  <si>
     <t>23, Armatas2014</t>
   </si>
   <si>
@@ -296,9 +290,6 @@
     <t>goalsFor</t>
   </si>
   <si>
-    <t>HAoperationalisatie/ attack-defense balance</t>
-  </si>
-  <si>
     <t>daysSincePreviousGame</t>
   </si>
   <si>
@@ -342,13 +333,16 @@
   </si>
   <si>
     <t>foulsSuffered</t>
+  </si>
+  <si>
+    <t>HAuitkomst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -588,7 +582,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1747,20 +1741,20 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" ht="49.95" customHeight="1">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
     </row>
-    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" ht="17.399999999999999">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1771,14 +1765,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4" ht="15">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -1803,24 +1797,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV85"/>
+  <dimension ref="A1:IV84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="38" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" style="5" customWidth="1"/>
     <col min="7" max="256" width="8.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
@@ -1830,7 +1824,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>7</v>
@@ -1842,7 +1836,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1853,12 +1847,12 @@
         <v>10</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="19.95" customHeight="1">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1869,12 +1863,12 @@
         <v>12</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="19.95" customHeight="1">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1885,12 +1879,12 @@
         <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="19.95" customHeight="1">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1906,7 +1900,7 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="19.95" customHeight="1">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1917,12 +1911,12 @@
         <v>17</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="19.95" customHeight="1">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1933,47 +1927,49 @@
         <v>18</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="19.95" customHeight="1">
       <c r="A9" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="19.95" customHeight="1">
       <c r="A10" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="19.95" customHeight="1">
       <c r="A11" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>22</v>
@@ -1981,15 +1977,17 @@
       <c r="D11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="19.95" customHeight="1">
       <c r="A12" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>24</v>
@@ -2002,51 +2000,51 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="19.95" customHeight="1">
       <c r="A13" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="19.95" customHeight="1">
       <c r="A14" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="19.95" customHeight="1">
       <c r="A15" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>25</v>
@@ -2056,280 +2054,278 @@
       </c>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="19.95" customHeight="1">
       <c r="A16" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="19.95" customHeight="1">
       <c r="A17" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="19.95" customHeight="1">
       <c r="A18" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="19.95" customHeight="1">
       <c r="A19" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="19.95" customHeight="1">
       <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="19.95" customHeight="1">
       <c r="A22" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="19.95" customHeight="1">
       <c r="A23" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="19.95" customHeight="1">
       <c r="A25" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="19.95" customHeight="1">
       <c r="A27" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="19.95" customHeight="1">
       <c r="A28" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="19.95" customHeight="1">
       <c r="A29" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="19.95" customHeight="1">
       <c r="A30" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="19.95" customHeight="1">
       <c r="A31" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="19.95" customHeight="1">
       <c r="A32" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>48</v>
@@ -2337,178 +2333,180 @@
       <c r="D32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="19.95" customHeight="1">
       <c r="A33" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="14" t="s">
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12">
-        <v>32</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="D34" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="E34" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="19.95" customHeight="1">
       <c r="A35" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12">
-        <v>34</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="14" t="s">
+      <c r="D36" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12">
-        <v>35</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="C37" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="12">
-        <v>36</v>
-      </c>
-      <c r="B38" s="13" t="s">
+      <c r="D38" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="12">
-        <v>37</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="D39" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="19.95" customHeight="1">
       <c r="A40" s="12">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="19.95" customHeight="1">
       <c r="A41" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="19.95" customHeight="1">
       <c r="A42" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>25</v>
@@ -2518,717 +2516,699 @@
       </c>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="19.95" customHeight="1">
       <c r="A43" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E43" s="15"/>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="19.95" customHeight="1">
       <c r="A44" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="19.95" customHeight="1">
       <c r="A45" s="12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="19.95" customHeight="1">
       <c r="A46" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="19.95" customHeight="1">
       <c r="A47" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="19.95" customHeight="1">
       <c r="A48" s="12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="D48" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="19.95" customHeight="1">
       <c r="A49" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>68</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="19.95" customHeight="1">
       <c r="A50" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="19.95" customHeight="1">
       <c r="A51" s="12">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="19.95" customHeight="1">
       <c r="A52" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
     </row>
-    <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="19.95" customHeight="1">
       <c r="A53" s="12">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
     </row>
-    <row r="54" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="19.95" customHeight="1">
       <c r="A54" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
     </row>
-    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="19.95" customHeight="1">
       <c r="A55" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
     </row>
-    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="19.95" customHeight="1">
       <c r="A56" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
     </row>
-    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="19.95" customHeight="1">
       <c r="A57" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
     </row>
-    <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="19.95" customHeight="1">
       <c r="A58" s="12">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
     </row>
-    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="19.95" customHeight="1">
       <c r="A59" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
     </row>
-    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="19.95" customHeight="1">
       <c r="A60" s="12">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
     </row>
-    <row r="61" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="19.95" customHeight="1">
       <c r="A61" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
     </row>
-    <row r="62" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="19.95" customHeight="1">
       <c r="A62" s="12">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="F62" s="15"/>
     </row>
-    <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="19.95" customHeight="1">
       <c r="A63" s="12">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E63" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A64" s="12">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F63" s="15"/>
-    </row>
-    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="12">
-        <v>62</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="D64" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="15"/>
     </row>
-    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="19.95" customHeight="1">
       <c r="A65" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A66" s="12">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="14" t="s">
+      <c r="E66" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A67" s="12">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A68" s="12">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="15"/>
-    </row>
-    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="12">
-        <v>64</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="14" t="s">
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A69" s="12">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-    </row>
-    <row r="67" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="12">
-        <v>65</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F67" s="15"/>
-    </row>
-    <row r="68" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="12">
-        <v>66</v>
-      </c>
-      <c r="B68" s="13" t="s">
+      <c r="C69" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="14" t="s">
+      <c r="D69" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A70" s="12">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="12">
-        <v>67</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" s="14" t="s">
+      <c r="C70" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D69" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="15"/>
-    </row>
-    <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="12">
-        <v>68</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="D70" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="15"/>
     </row>
-    <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="19.95" customHeight="1">
       <c r="A71" s="12">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="19.95" customHeight="1">
       <c r="A72" s="12">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="E72" s="15"/>
       <c r="F72" s="15"/>
     </row>
-    <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="19.95" customHeight="1">
       <c r="A73" s="12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
     </row>
-    <row r="74" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="19.95" customHeight="1">
       <c r="A74" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
     </row>
-    <row r="75" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="19.95" customHeight="1">
       <c r="A75" s="12">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
     </row>
-    <row r="76" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="19.95" customHeight="1">
       <c r="A76" s="12">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="F76" s="15"/>
     </row>
-    <row r="77" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="19.95" customHeight="1">
       <c r="A77" s="12">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F77" s="15"/>
     </row>
-    <row r="78" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="19.95" customHeight="1">
       <c r="A78" s="12">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E78" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="15"/>
     </row>
-    <row r="79" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="19.95" customHeight="1">
       <c r="A79" s="12">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="15"/>
     </row>
-    <row r="80" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="19.95" customHeight="1">
       <c r="A80" s="12">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="D80" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="15"/>
     </row>
-    <row r="81" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="19.95" customHeight="1">
       <c r="A81" s="12">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E81" s="15"/>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="19.95" customHeight="1">
       <c r="A82" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
     </row>
-    <row r="83" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="19.95" customHeight="1">
       <c r="A83" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="15"/>
+      <c r="E83" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="F83" s="15"/>
     </row>
-    <row r="84" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="19.95" customHeight="1">
       <c r="A84" s="12">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E84" s="15"/>
       <c r="F84" s="15"/>
-    </row>
-    <row r="85" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="12">
-        <v>83</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
